--- a/data/trans_camb/P10_2_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P10_2_R-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 2,05</t>
+          <t>-1,68; 2,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 2,49</t>
+          <t>-1,63; 2,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 2,23</t>
+          <t>-2,48; 2,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 4,29</t>
+          <t>-0,59; 4,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 1,36</t>
+          <t>-2,62; 1,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 8,55</t>
+          <t>-0,28; 8,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 2,49</t>
+          <t>-0,52; 2,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 1,34</t>
+          <t>-1,35; 1,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 3,64</t>
+          <t>-0,82; 3,95</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-60,92; 281,3</t>
+          <t>-61,58; 255,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-62,05; 288,37</t>
+          <t>-61,92; 286,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 418,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,88; 248,36</t>
+          <t>-19,36; 228,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-69,89; 93,33</t>
+          <t>-67,63; 68,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-21,46; 395,61</t>
+          <t>-12,1; 443,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-23,68; 151,83</t>
+          <t>-19,28; 152,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-53,66; 76,44</t>
+          <t>-48,08; 105,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-45,42; 224,84</t>
+          <t>-32,67; 229,55</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 1,86</t>
+          <t>-1,74; 1,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 3,26</t>
+          <t>-0,81; 3,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 3,32</t>
+          <t>-1,73; 3,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 1,72</t>
+          <t>-3,7; 1,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 0,53</t>
+          <t>-4,84; 0,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 4,02</t>
+          <t>-3,0; 3,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 1,2</t>
+          <t>-2,07; 1,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 1,42</t>
+          <t>-1,88; 1,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 2,71</t>
+          <t>-1,54; 2,79</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-48,74; 111,47</t>
+          <t>-50,77; 102,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-25,94; 172,16</t>
+          <t>-25,23; 168,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-62,08; 175,45</t>
+          <t>-57,34; 228,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-48,66; 40,86</t>
+          <t>-52,03; 38,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-61,36; 12,96</t>
+          <t>-62,95; 14,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-41,15; 83,38</t>
+          <t>-41,18; 71,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-40,37; 34,34</t>
+          <t>-41,1; 29,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-38,0; 42,48</t>
+          <t>-37,54; 34,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-30,69; 81,33</t>
+          <t>-32,46; 79,34</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 2,82</t>
+          <t>-1,84; 2,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 1,54</t>
+          <t>-2,74; 1,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 4,01</t>
+          <t>-1,13; 3,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,9; 8,98</t>
+          <t>2,97; 9,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 3,03</t>
+          <t>-1,58; 3,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 2,53</t>
+          <t>-1,98; 2,52</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,33; 5,27</t>
+          <t>1,15; 5,06</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 1,61</t>
+          <t>-1,59; 1,72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 2,35</t>
+          <t>-1,05; 2,49</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-36,36; 92,49</t>
+          <t>-36,19; 95,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-54,83; 55,11</t>
+          <t>-53,33; 54,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-27,42; 134,81</t>
+          <t>-25,69; 125,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>44,5; 221,3</t>
+          <t>43,37; 224,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-29,41; 71,39</t>
+          <t>-25,65; 81,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-34,72; 67,28</t>
+          <t>-31,35; 62,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>22,65; 135,22</t>
+          <t>20,38; 129,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-30,17; 41,53</t>
+          <t>-29,24; 45,95</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-20,35; 62,03</t>
+          <t>-19,99; 63,27</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 4,83</t>
+          <t>-0,79; 5,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 4,35</t>
+          <t>-1,08; 4,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 4,03</t>
+          <t>-1,07; 4,53</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 7,33</t>
+          <t>-0,57; 7,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 3,54</t>
+          <t>-4,13; 3,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 3,07</t>
+          <t>-4,2; 3,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,12; 5,12</t>
+          <t>0,27; 5,1</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 3,1</t>
+          <t>-1,34; 3,12</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 2,91</t>
+          <t>-1,69; 2,83</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-18,78; 154,54</t>
+          <t>-14,41; 162,2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-22,67; 135,41</t>
+          <t>-20,24; 143,24</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-26,29; 119,96</t>
+          <t>-23,2; 132,04</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 93,26</t>
+          <t>-5,44; 91,13</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-31,29; 45,31</t>
+          <t>-34,6; 38,5</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-34,37; 37,72</t>
+          <t>-36,4; 41,35</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,34; 83,66</t>
+          <t>3,31; 84,66</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-15,55; 51,96</t>
+          <t>-17,28; 51,93</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-20,07; 47,0</t>
+          <t>-21,99; 46,21</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 5,55</t>
+          <t>-2,09; 5,38</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 1,46</t>
+          <t>-5,33; 1,74</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 3,64</t>
+          <t>-3,29; 3,3</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,82; 15,28</t>
+          <t>4,91; 14,74</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,28; 10,25</t>
+          <t>1,53; 10,69</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 6,48</t>
+          <t>-0,98; 6,08</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,68; 9,13</t>
+          <t>2,7; 9,17</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 5,07</t>
+          <t>-0,4; 5,35</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 3,88</t>
+          <t>-1,04; 3,94</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-20,25; 100,68</t>
+          <t>-23,95; 94,81</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-58,02; 28,09</t>
+          <t>-56,27; 32,6</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-33,39; 65,78</t>
+          <t>-34,84; 59,28</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>39,91; 197,24</t>
+          <t>40,32; 190,1</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>10,27; 130,26</t>
+          <t>12,08; 144,63</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 85,77</t>
+          <t>-7,83; 84,9</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>24,49; 119,54</t>
+          <t>26,8; 124,23</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 68,2</t>
+          <t>-4,91; 72,33</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-9,12; 53,83</t>
+          <t>-10,9; 52,98</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 8,21</t>
+          <t>-0,52; 8,07</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 0,96</t>
+          <t>-6,29; 1,17</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,52; -0,52</t>
+          <t>-7,56; -0,63</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>5,92; 15,1</t>
+          <t>5,73; 14,62</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,91; 9,42</t>
+          <t>0,69; 9,42</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 5,54</t>
+          <t>-5,0; 5,4</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>4,31; 10,91</t>
+          <t>4,76; 10,6</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 4,57</t>
+          <t>-1,37; 4,68</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 2,06</t>
+          <t>-3,64; 2,48</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 78,31</t>
+          <t>-3,64; 72,82</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-44,1; 10,27</t>
+          <t>-42,07; 10,8</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-48,87; -3,81</t>
+          <t>-48,94; -4,86</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>32,17; 109,1</t>
+          <t>31,65; 100,36</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>4,93; 65,97</t>
+          <t>3,88; 66,12</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-24,78; 37,33</t>
+          <t>-26,47; 36,82</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>26,48; 80,65</t>
+          <t>27,5; 78,44</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 34,39</t>
+          <t>-7,74; 36,75</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-25,47; 15,43</t>
+          <t>-22,52; 19,02</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,36; 2,73</t>
+          <t>0,41; 2,8</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 1,23</t>
+          <t>-0,99; 1,23</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 1,83</t>
+          <t>-0,41; 1,95</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,87; 6,87</t>
+          <t>3,96; 7,11</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,63; 3,72</t>
+          <t>0,77; 3,6</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,67; 3,59</t>
+          <t>0,68; 3,76</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,59; 4,51</t>
+          <t>2,65; 4,65</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,11</t>
+          <t>0,19; 2,08</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,55</t>
+          <t>0,65; 2,53</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>6,09; 58,56</t>
+          <t>6,12; 60,06</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-16,37; 26,31</t>
+          <t>-17,29; 26,58</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 39,53</t>
+          <t>-7,32; 42,95</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>40,8; 87,43</t>
+          <t>42,97; 91,21</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>6,9; 47,83</t>
+          <t>8,36; 46,33</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>8,78; 45,82</t>
+          <t>7,76; 49,18</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>35,23; 70,43</t>
+          <t>34,92; 72,53</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>4,04; 32,98</t>
+          <t>2,67; 32,47</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>8,38; 39,63</t>
+          <t>9,12; 40,54</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P10_2_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P10_2_R-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 2,1</t>
+          <t>-1,55; 1,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 2,29</t>
+          <t>-1,64; 2,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 2,1</t>
+          <t>-2,44; 2,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 4,15</t>
+          <t>-0,7; 4,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 1,25</t>
+          <t>-2,78; 1,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 8,46</t>
+          <t>-0,32; 7,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 2,47</t>
+          <t>-0,6; 2,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 1,5</t>
+          <t>-1,38; 1,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 3,95</t>
+          <t>-0,78; 3,74</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-61,58; 255,16</t>
+          <t>-62,88; 219,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-61,92; 286,45</t>
+          <t>-60,25; 273,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 418,66</t>
+          <t>-100,0; 1272,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-19,36; 228,33</t>
+          <t>-23,8; 223,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-67,63; 68,64</t>
+          <t>-73,26; 69,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-12,1; 443,7</t>
+          <t>-23,87; 360,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-19,28; 152,85</t>
+          <t>-22,57; 155,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-48,08; 105,29</t>
+          <t>-48,54; 87,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-32,67; 229,55</t>
+          <t>-35,51; 215,75</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 1,83</t>
+          <t>-1,82; 1,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 3,03</t>
+          <t>-1,02; 3,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 3,65</t>
+          <t>-1,96; 3,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 1,61</t>
+          <t>-3,92; 1,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 0,44</t>
+          <t>-4,68; 0,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 3,31</t>
+          <t>-2,91; 3,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 1,09</t>
+          <t>-2,05; 1,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 1,2</t>
+          <t>-1,92; 1,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 2,79</t>
+          <t>-1,56; 2,78</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-50,77; 102,46</t>
+          <t>-50,57; 93,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-25,23; 168,34</t>
+          <t>-32,04; 173,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-57,34; 228,8</t>
+          <t>-63,55; 154,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-52,03; 38,65</t>
+          <t>-49,88; 35,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-62,95; 14,55</t>
+          <t>-63,13; 12,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-41,18; 71,54</t>
+          <t>-41,02; 80,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-41,1; 29,94</t>
+          <t>-42,06; 28,92</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-37,54; 34,44</t>
+          <t>-38,82; 41,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-32,46; 79,34</t>
+          <t>-31,79; 79,27</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 2,81</t>
+          <t>-1,72; 2,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 1,57</t>
+          <t>-3,11; 1,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 3,78</t>
+          <t>-1,26; 3,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,97; 9,2</t>
+          <t>3,13; 8,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 3,15</t>
+          <t>-1,76; 3,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 2,52</t>
+          <t>-1,91; 2,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,15; 5,06</t>
+          <t>1,32; 5,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 1,72</t>
+          <t>-1,69; 1,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 2,49</t>
+          <t>-1,09; 2,5</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-36,19; 95,41</t>
+          <t>-34,26; 100,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-53,33; 54,85</t>
+          <t>-59,38; 50,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-25,69; 125,49</t>
+          <t>-27,29; 145,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>43,37; 224,81</t>
+          <t>48,47; 220,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-25,65; 81,58</t>
+          <t>-28,59; 78,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-31,35; 62,0</t>
+          <t>-30,97; 64,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>20,38; 129,79</t>
+          <t>22,28; 129,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-29,24; 45,95</t>
+          <t>-30,38; 47,74</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-19,99; 63,27</t>
+          <t>-21,16; 64,98</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 5,24</t>
+          <t>-0,78; 4,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 4,43</t>
+          <t>-1,0; 4,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 4,53</t>
+          <t>-1,5; 4,34</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 7,2</t>
+          <t>-0,5; 7,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 3,23</t>
+          <t>-3,54; 3,48</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 3,14</t>
+          <t>-3,97; 3,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,27; 5,1</t>
+          <t>0,14; 5,24</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 3,12</t>
+          <t>-1,58; 3,05</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 2,83</t>
+          <t>-1,84; 2,91</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-14,41; 162,2</t>
+          <t>-15,91; 157,12</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-20,24; 143,24</t>
+          <t>-17,55; 157,09</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-23,2; 132,04</t>
+          <t>-25,64; 134,19</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 91,13</t>
+          <t>-5,51; 90,95</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-34,6; 38,5</t>
+          <t>-30,39; 45,48</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-36,4; 41,35</t>
+          <t>-35,08; 37,55</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,31; 84,66</t>
+          <t>1,17; 87,76</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-17,28; 51,93</t>
+          <t>-18,73; 50,76</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-21,99; 46,21</t>
+          <t>-21,76; 48,09</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 5,38</t>
+          <t>-1,99; 5,75</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 1,74</t>
+          <t>-5,34; 1,44</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 3,3</t>
+          <t>-3,57; 3,37</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,91; 14,74</t>
+          <t>5,3; 14,57</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,53; 10,69</t>
+          <t>1,96; 10,98</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 6,08</t>
+          <t>-0,8; 6,47</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,7; 9,17</t>
+          <t>2,9; 9,23</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 5,35</t>
+          <t>-0,53; 5,17</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 3,94</t>
+          <t>-1,18; 4,0</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-23,95; 94,81</t>
+          <t>-23,09; 101,94</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-56,27; 32,6</t>
+          <t>-55,98; 27,87</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-34,84; 59,28</t>
+          <t>-34,63; 61,72</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>40,32; 190,1</t>
+          <t>43,72; 190,42</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>12,08; 144,63</t>
+          <t>14,37; 142,35</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 84,9</t>
+          <t>-6,89; 88,04</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>26,8; 124,23</t>
+          <t>28,66; 125,64</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 72,33</t>
+          <t>-5,52; 72,71</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-10,9; 52,98</t>
+          <t>-11,33; 55,48</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 8,07</t>
+          <t>-0,74; 8,07</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 1,17</t>
+          <t>-6,33; 1,23</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,56; -0,63</t>
+          <t>-7,43; -0,8</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>5,73; 14,62</t>
+          <t>6,52; 14,72</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,69; 9,42</t>
+          <t>0,62; 9,42</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 5,4</t>
+          <t>-4,77; 5,35</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>4,76; 10,6</t>
+          <t>4,49; 10,77</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 4,68</t>
+          <t>-1,17; 4,69</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 2,48</t>
+          <t>-3,94; 2,17</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 72,82</t>
+          <t>-5,56; 76,05</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-42,07; 10,8</t>
+          <t>-42,79; 12,5</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-48,94; -4,86</t>
+          <t>-48,13; -6,18</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>31,65; 100,36</t>
+          <t>34,83; 103,12</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>3,88; 66,12</t>
+          <t>2,82; 64,73</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-26,47; 36,82</t>
+          <t>-26,34; 36,2</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>27,5; 78,44</t>
+          <t>28,05; 81,74</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 36,75</t>
+          <t>-7,23; 35,55</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-22,52; 19,02</t>
+          <t>-24,73; 16,55</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,41; 2,8</t>
+          <t>0,28; 2,72</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 1,23</t>
+          <t>-0,91; 1,2</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 1,95</t>
+          <t>-0,5; 1,77</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,96; 7,11</t>
+          <t>4,12; 7,09</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,77; 3,6</t>
+          <t>0,79; 3,64</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,68; 3,76</t>
+          <t>0,86; 3,74</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,65; 4,65</t>
+          <t>2,58; 4,51</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,19; 2,08</t>
+          <t>0,38; 2,16</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,53</t>
+          <t>0,7; 2,52</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>6,12; 60,06</t>
+          <t>4,95; 57,93</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-17,29; 26,58</t>
+          <t>-16,02; 26,09</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 42,95</t>
+          <t>-8,57; 37,99</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>42,97; 91,21</t>
+          <t>45,41; 91,65</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>8,36; 46,33</t>
+          <t>8,54; 46,87</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>7,76; 49,18</t>
+          <t>9,18; 48,06</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>34,92; 72,53</t>
+          <t>36,11; 71,04</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>2,67; 32,47</t>
+          <t>5,02; 33,4</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>9,12; 40,54</t>
+          <t>9,64; 38,53</t>
         </is>
       </c>
     </row>
